--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FOLDERS\Code_Folder\Web\Hezartoo\Test_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\CODE\Web\test1\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38717BD-1522-43AC-A5BD-4BEE5A16DE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDE5A4-3D94-4591-85FB-B7A404D2C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF2FE951-A8A4-47FE-A9AB-CC2038D9D9E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AF2FE951-A8A4-47FE-A9AB-CC2038D9D9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
   <si>
     <t>first_name</t>
   </si>
@@ -413,6 +412,9 @@
   </si>
   <si>
     <t>shaghayegh.nasiri@yahoo.com</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
 </sst>
 </file>
@@ -448,14 +450,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -504,12 +515,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E663C645-3F53-467C-8E84-CA5C3174E77A}" uniqueName="1" name="first_name" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{640A5004-D30A-4370-8EAB-AAAD80247A28}" uniqueName="2" name="last_name" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E663C645-3F53-467C-8E84-CA5C3174E77A}" uniqueName="1" name="first_name" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{640A5004-D30A-4370-8EAB-AAAD80247A28}" uniqueName="2" name="last_name" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{E8383516-D350-4ECE-9CBB-7DD0390DAB2F}" uniqueName="3" name="phone_number" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4FCFDB16-2885-4FB3-A189-9D36D4B10577}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4FCFDB16-2885-4FB3-A189-9D36D4B10577}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{37D4B18A-1C47-4BB7-B5EB-BB0E9E7FE535}" uniqueName="5" name="ticket_number" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{0A6847D3-6F07-4052-981C-BF49563A77B1}" uniqueName="6" name="is_vip" queryTableFieldId="6"/>
+    <tableColumn id="6" xr3:uid="{0A6847D3-6F07-4052-981C-BF49563A77B1}" uniqueName="6" name="is_vip" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,7 +826,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +836,7 @@
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -844,7 +855,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -864,8 +875,8 @@
       <c r="E2">
         <v>100001</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -884,7 +895,7 @@
       <c r="E3">
         <v>100002</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -904,7 +915,7 @@
       <c r="E4">
         <v>100003</v>
       </c>
-      <c r="F4" t="b">
+      <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -924,7 +935,7 @@
       <c r="E5">
         <v>100004</v>
       </c>
-      <c r="F5" t="b">
+      <c r="F5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -944,8 +955,8 @@
       <c r="E6">
         <v>100005</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,7 +975,7 @@
       <c r="E7">
         <v>100006</v>
       </c>
-      <c r="F7" t="b">
+      <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -984,7 +995,7 @@
       <c r="E8">
         <v>100007</v>
       </c>
-      <c r="F8" t="b">
+      <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1004,7 +1015,7 @@
       <c r="E9">
         <v>100008</v>
       </c>
-      <c r="F9" t="b">
+      <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1024,7 +1035,7 @@
       <c r="E10">
         <v>100009</v>
       </c>
-      <c r="F10" t="b">
+      <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +1055,7 @@
       <c r="E11">
         <v>100010</v>
       </c>
-      <c r="F11" t="b">
+      <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1075,7 @@
       <c r="E12">
         <v>100011</v>
       </c>
-      <c r="F12" t="b">
+      <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1084,8 +1095,8 @@
       <c r="E13">
         <v>100012</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,7 +1115,7 @@
       <c r="E14">
         <v>100013</v>
       </c>
-      <c r="F14" t="b">
+      <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1124,7 +1135,7 @@
       <c r="E15">
         <v>100014</v>
       </c>
-      <c r="F15" t="b">
+      <c r="F15" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1155,7 @@
       <c r="E16">
         <v>100015</v>
       </c>
-      <c r="F16" t="b">
+      <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1175,7 @@
       <c r="E17">
         <v>100016</v>
       </c>
-      <c r="F17" t="b">
+      <c r="F17" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1195,7 @@
       <c r="E18">
         <v>100017</v>
       </c>
-      <c r="F18" t="b">
+      <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1204,7 +1215,7 @@
       <c r="E19">
         <v>100018</v>
       </c>
-      <c r="F19" t="b">
+      <c r="F19" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1224,8 +1235,8 @@
       <c r="E20">
         <v>100019</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1244,7 +1255,7 @@
       <c r="E21">
         <v>100020</v>
       </c>
-      <c r="F21" t="b">
+      <c r="F21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1264,7 +1275,7 @@
       <c r="E22">
         <v>100021</v>
       </c>
-      <c r="F22" t="b">
+      <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1284,7 +1295,7 @@
       <c r="E23">
         <v>100022</v>
       </c>
-      <c r="F23" t="b">
+      <c r="F23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1304,7 +1315,7 @@
       <c r="E24">
         <v>100023</v>
       </c>
-      <c r="F24" t="b">
+      <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1324,7 +1335,7 @@
       <c r="E25">
         <v>100024</v>
       </c>
-      <c r="F25" t="b">
+      <c r="F25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1355,7 @@
       <c r="E26">
         <v>100025</v>
       </c>
-      <c r="F26" t="b">
+      <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1364,7 +1375,7 @@
       <c r="E27">
         <v>100026</v>
       </c>
-      <c r="F27" t="b">
+      <c r="F27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1384,8 +1395,8 @@
       <c r="E28">
         <v>100027</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1404,7 +1415,7 @@
       <c r="E29">
         <v>100028</v>
       </c>
-      <c r="F29" t="b">
+      <c r="F29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1424,7 +1435,7 @@
       <c r="E30">
         <v>100029</v>
       </c>
-      <c r="F30" t="b">
+      <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1444,7 +1455,7 @@
       <c r="E31">
         <v>100030</v>
       </c>
-      <c r="F31" t="b">
+      <c r="F31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1475,7 @@
       <c r="E32">
         <v>100031</v>
       </c>
-      <c r="F32" t="b">
+      <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1484,7 +1495,7 @@
       <c r="E33">
         <v>100032</v>
       </c>
-      <c r="F33" t="b">
+      <c r="F33" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1504,7 +1515,7 @@
       <c r="E34">
         <v>100033</v>
       </c>
-      <c r="F34" t="b">
+      <c r="F34" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1524,7 +1535,7 @@
       <c r="E35">
         <v>100034</v>
       </c>
-      <c r="F35" t="b">
+      <c r="F35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1544,8 +1555,8 @@
       <c r="E36">
         <v>100035</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1564,7 +1575,7 @@
       <c r="E37">
         <v>100036</v>
       </c>
-      <c r="F37" t="b">
+      <c r="F37" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1584,7 +1595,7 @@
       <c r="E38">
         <v>100037</v>
       </c>
-      <c r="F38" t="b">
+      <c r="F38" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1615,7 @@
       <c r="E39">
         <v>100038</v>
       </c>
-      <c r="F39" t="b">
+      <c r="F39" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1624,7 +1635,7 @@
       <c r="E40">
         <v>100039</v>
       </c>
-      <c r="F40" t="b">
+      <c r="F40" s="2" t="b">
         <v>0</v>
       </c>
     </row>
